--- a/xlsx/君王_intext.xlsx
+++ b/xlsx/君王_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t>君王</t>
   </si>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>君主主義</t>
+    <t>君主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81%E5%A4%A9%E7%9A%87%E5%88%B6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%96%93%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>人間宣言</t>
+    <t>人间宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%B6</t>
@@ -143,67 +143,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>帝國</t>
+    <t>帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>王國</t>
+    <t>王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>汗國</t>
+    <t>汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>親王國</t>
+    <t>亲王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>大公國</t>
+    <t>大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>公國</t>
+    <t>公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AA%E8%AE%93%E5%88%B6</t>
   </si>
   <si>
-    <t>禪讓制</t>
+    <t>禅让制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>世襲君主制</t>
+    <t>世袭君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E5%BB%BA%E5%84%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>秘密建儲制</t>
+    <t>秘密建储制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>選舉君主制</t>
+    <t>选举君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B8%9D%E5%85%B1%E6%B2%BB%E5%88%B6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制君主立憲制</t>
+    <t>议会制君主立宪制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Non-Sovereign_Monarchy</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%9C%9D%E7%A8%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>臨朝稱制</t>
+    <t>临朝称制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E5%B8%98%E5%90%AC%E6%94%BF</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%9C%8B</t>
   </si>
   <si>
-    <t>監國</t>
+    <t>监国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%94%BF</t>
   </si>
   <si>
-    <t>攝政</t>
+    <t>摄政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%A5%E7%AB%8B%E5%9B%BD%E7%8E%8B%E8%80%85</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
   </si>
   <si>
-    <t>保皇黨</t>
+    <t>保皇党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9%E8%80%85%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>國際君主主義者會議</t>
+    <t>国际君主主义者会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>絕對君主制</t>
+    <t>绝对君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1910%E5%B9%B410%E6%9C%885%E6%97%A5%E9%9D%A9%E5%91%BD</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E4%BF%84%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1917年俄國革命</t>
+    <t>1917年俄国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%8D%81%E4%B8%80%E6%9C%88%E9%9D%A9%E5%91%BD</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/1932%E5%B9%B4%E6%B3%B0%E5%9C%8B%E7%AB%8B%E6%86%B2%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1932年泰國立憲革命</t>
+    <t>1932年泰国立宪革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1946%E5%B9%B4%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%BB%A2%E9%99%A4%E7%8E%8B%E6%94%BF%E5%9C%8B%E6%B0%91%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>1946年義大利廢除王政國民投票</t>
+    <t>1946年义大利废除王政国民投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF%E4%B8%80%E4%B8%96</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>西班牙內戰</t>
+    <t>西班牙内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94%E5%86%85%E6%88%98</t>
@@ -371,37 +371,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>德意志統一</t>
+    <t>德意志统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第二帝國</t>
+    <t>法兰西第二帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬尼亞王國</t>
+    <t>罗马尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%88%B0%E8%A9%94%E6%9B%B8</t>
   </si>
   <si>
-    <t>終戰詔書</t>
+    <t>终战诏书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>專政</t>
+    <t>专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F%E5%88%B6</t>
   </si>
   <si>
-    <t>貴族制</t>
+    <t>贵族制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>貴族等級</t>
+    <t>贵族等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E5%88%B6</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>酋長國</t>
+    <t>酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%BD%8D%E6%9C%9F</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%B2%E9%80%8F%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>滲透王朝</t>
+    <t>渗透王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E6%9C%8D%E7%8E%8B%E6%9C%9D</t>
@@ -485,19 +485,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>中央集權</t>
+    <t>中央集权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%90%9B%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>反君權運動</t>
+    <t>反君权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B%E7%9A%84%E6%96%B0%E8%A1%A3</t>
   </si>
   <si>
-    <t>國王的新衣</t>
+    <t>国王的新衣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Monarchism</t>
@@ -509,9 +509,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E7%AD%89%E7%BA%A7</t>
   </si>
   <si>
-    <t>贵族等级</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%A4%A7%E5%85%AC</t>
   </si>
   <si>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>大親王</t>
+    <t>大亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%88%B5</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>從男爵</t>
+    <t>从男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%A3%AB</t>
@@ -629,43 +626,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E8%A6%AA</t>
   </si>
   <si>
-    <t>血親</t>
+    <t>血亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A2%AD%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>世袭君主制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%85%E8%AE%A9%E5%88%B6</t>
   </si>
   <si>
-    <t>禅让制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E4%BA%BA</t>
   </si>
   <si>
-    <t>繼承人</t>
+    <t>继承人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>統治</t>
+    <t>统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%A4</t>
@@ -689,43 +680,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1</t>
   </si>
   <si>
-    <t>血統</t>
+    <t>血统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>王 (中國)</t>
+    <t>王 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%8E%8B</t>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%BA%8E</t>
   </si>
   <si>
-    <t>單于</t>
+    <t>单于</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%B1%97</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%89%87%E5%A4%A9</t>
   </si>
   <si>
-    <t>武則天</t>
+    <t>武则天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -833,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E5%8D%91</t>
   </si>
   <si>
-    <t>鮮卑</t>
+    <t>鲜卑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F</t>
@@ -851,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E7%89%A7%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>遊牧民族</t>
+    <t>游牧民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%91%A8</t>
   </si>
   <si>
-    <t>東周</t>
+    <t>东周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A9%E5%B1%9E%E5%9B%BD</t>
@@ -953,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%95%E5%BA%9C%E5%B0%87%E8%BB%8D</t>
   </si>
   <si>
-    <t>幕府將軍</t>
+    <t>幕府将军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%A4%A7%E5%90%9B</t>
   </si>
   <si>
-    <t>日本國大君</t>
+    <t>日本国大君</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%80%81</t>
@@ -977,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -1001,13 +992,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9_(%E7%A8%B1%E8%AC%82)</t>
   </si>
   <si>
-    <t>蘇丹 (稱謂)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>伊斯蘭國家</t>
+    <t>伊斯兰国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%83%B9</t>
@@ -1025,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%92%92_(%E5%A4%B4%E8%A1%94)</t>
@@ -1037,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD_(%E7%A8%B1%E8%99%9F)</t>
   </si>
   <si>
-    <t>奧古斯都 (稱號)</t>
+    <t>奥古斯都 (称号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E6%94%BF%E5%BA%9C%E6%9C%BA%E6%9E%84%E5%92%8C%E8%B4%B5%E6%97%8F%E7%AD%89%E7%BA%A7</t>
@@ -1049,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9F%E8%99%9F</t>
   </si>
   <si>
-    <t>廟號</t>
+    <t>庙号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E8%99%9F</t>
   </si>
   <si>
-    <t>封號</t>
+    <t>封号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%95</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%95%E5%B4%A9</t>
   </si>
   <si>
-    <t>駕崩</t>
+    <t>驾崩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%80%E5%84%A1%E7%9A%87%E5%B8%9D</t>
@@ -1121,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%A4%E6%83%85%E5%A9%A6</t>
   </si>
   <si>
-    <t>王室情婦</t>
+    <t>王室情妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%A4%AB</t>
@@ -1139,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%AA%E5%BE%A1</t>
   </si>
   <si>
-    <t>嬪御</t>
+    <t>嫔御</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E5%A9%A6</t>
   </si>
   <si>
-    <t>情婦</t>
+    <t>情妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E5%B0%81</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%8A%9C</t>
   </si>
   <si>
-    <t>頭銜</t>
+    <t>头衔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E5%B0%8A</t>
@@ -1223,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E6%AE%BF</t>
   </si>
   <si>
-    <t>宮殿</t>
+    <t>宫殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%AE%AE</t>
   </si>
   <si>
-    <t>後宮</t>
+    <t>后宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%B0%94%E5%B7%B4</t>
@@ -1259,19 +1247,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E6%9D%96</t>
   </si>
   <si>
-    <t>權杖</t>
+    <t>权杖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%BD</t>
   </si>
   <si>
-    <t>璽</t>
+    <t>玺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%A2%8D</t>
   </si>
   <si>
-    <t>黃袍</t>
+    <t>黄袍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/English_medieval_clothing</t>
@@ -1295,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%BB%9C</t>
   </si>
   <si>
-    <t>廢黜</t>
+    <t>废黜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E4%BD%8D</t>
   </si>
   <si>
-    <t>遜位</t>
+    <t>逊位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%A1%E4%BD%8D</t>
@@ -1319,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%AE%88_(%E5%AE%98%E8%81%B7)</t>
   </si>
   <si>
-    <t>留守 (官職)</t>
+    <t>留守 (官职)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%89%E8%91%AC</t>
@@ -1343,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>領袖</t>
+    <t>领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E</t>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4114,7 +4102,7 @@
         <v>163</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4140,10 +4128,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4169,10 +4157,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4198,10 +4186,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4227,10 +4215,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4256,10 +4244,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4285,10 +4273,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4314,10 +4302,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4343,10 +4331,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4372,10 +4360,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4401,10 +4389,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4430,10 +4418,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4459,10 +4447,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4488,10 +4476,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4517,10 +4505,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4546,10 +4534,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4575,10 +4563,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4604,10 +4592,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4633,10 +4621,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4662,10 +4650,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4691,10 +4679,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -4720,10 +4708,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4749,10 +4737,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4778,10 +4766,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -4836,10 +4824,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4865,10 +4853,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4894,10 +4882,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4923,10 +4911,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>10</v>
@@ -4952,10 +4940,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4981,10 +4969,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -5010,10 +4998,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5039,10 +5027,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5068,10 +5056,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5097,10 +5085,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -5126,10 +5114,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5155,10 +5143,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5184,10 +5172,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5213,10 +5201,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>46</v>
@@ -5242,10 +5230,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5271,10 +5259,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5300,10 +5288,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5329,10 +5317,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5358,10 +5346,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5387,10 +5375,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5416,10 +5404,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5445,10 +5433,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5474,10 +5462,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -5503,10 +5491,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -5532,10 +5520,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5561,10 +5549,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5590,10 +5578,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -5619,10 +5607,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5648,10 +5636,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5677,10 +5665,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5706,10 +5694,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5735,10 +5723,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5764,10 +5752,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5793,10 +5781,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5822,10 +5810,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5851,10 +5839,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5880,10 +5868,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5909,10 +5897,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5938,10 +5926,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5967,10 +5955,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5996,10 +5984,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6025,10 +6013,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6054,10 +6042,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>7</v>
@@ -6083,10 +6071,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6112,10 +6100,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -6141,10 +6129,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6170,10 +6158,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6199,10 +6187,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6228,10 +6216,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6257,10 +6245,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6286,10 +6274,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6315,10 +6303,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F158" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6344,10 +6332,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6373,10 +6361,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6402,10 +6390,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6431,10 +6419,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6460,10 +6448,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6489,10 +6477,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6518,10 +6506,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6547,10 +6535,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6576,10 +6564,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6605,10 +6593,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6634,10 +6622,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6663,10 +6651,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6692,10 +6680,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>166</v>
+      </c>
+      <c r="F171" t="s">
         <v>167</v>
-      </c>
-      <c r="F171" t="s">
-        <v>168</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -6721,10 +6709,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6750,10 +6738,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6779,10 +6767,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6808,10 +6796,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6837,10 +6825,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6866,10 +6854,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6895,10 +6883,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6924,10 +6912,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6953,10 +6941,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6982,10 +6970,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7011,10 +6999,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F182" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7040,10 +7028,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7069,10 +7057,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7098,10 +7086,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7127,10 +7115,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7156,10 +7144,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7185,10 +7173,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7214,10 +7202,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7243,10 +7231,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7272,10 +7260,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7301,10 +7289,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7330,10 +7318,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7359,10 +7347,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7388,10 +7376,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7417,10 +7405,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7446,10 +7434,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7475,10 +7463,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7504,10 +7492,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7533,10 +7521,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7562,10 +7550,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7591,10 +7579,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7620,10 +7608,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7649,10 +7637,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7678,10 +7666,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7707,10 +7695,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7736,10 +7724,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7765,10 +7753,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7794,10 +7782,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7823,10 +7811,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7852,10 +7840,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7881,10 +7869,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7910,10 +7898,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7939,10 +7927,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7968,10 +7956,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7997,10 +7985,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8026,10 +8014,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8055,10 +8043,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8084,10 +8072,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8113,10 +8101,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8142,10 +8130,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8171,10 +8159,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8200,10 +8188,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8229,10 +8217,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8258,10 +8246,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>74</v>
@@ -8287,10 +8275,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>202</v>
+      </c>
+      <c r="F226" t="s">
         <v>203</v>
-      </c>
-      <c r="F226" t="s">
-        <v>204</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8316,10 +8304,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8345,10 +8333,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>12</v>
@@ -8374,10 +8362,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8403,10 +8391,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8432,10 +8420,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8461,10 +8449,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8490,10 +8478,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -8519,10 +8507,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8548,10 +8536,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>12</v>
@@ -8577,10 +8565,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
